--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Cd44.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Cd44.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H2">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N2">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O2">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P2">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q2">
-        <v>908.472992477647</v>
+        <v>5711.096969596372</v>
       </c>
       <c r="R2">
-        <v>908.472992477647</v>
+        <v>51399.87272636735</v>
       </c>
       <c r="S2">
-        <v>0.01698962364646891</v>
+        <v>0.03498289110195767</v>
       </c>
       <c r="T2">
-        <v>0.01698962364646891</v>
+        <v>0.03498289110195767</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H3">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N3">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P3">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q3">
-        <v>606.3757300883906</v>
+        <v>699.1800992656559</v>
       </c>
       <c r="R3">
-        <v>606.3757300883906</v>
+        <v>6292.620893390904</v>
       </c>
       <c r="S3">
-        <v>0.01134001288740353</v>
+        <v>0.004282774640927703</v>
       </c>
       <c r="T3">
-        <v>0.01134001288740353</v>
+        <v>0.004282774640927704</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H4">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.9004507531747</v>
+        <v>81.69901900000001</v>
       </c>
       <c r="N4">
-        <v>45.9004507531747</v>
+        <v>245.097057</v>
       </c>
       <c r="O4">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="P4">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
       <c r="Q4">
-        <v>871.9550518956718</v>
+        <v>1785.104665443605</v>
       </c>
       <c r="R4">
-        <v>871.9550518956718</v>
+        <v>16065.94198899244</v>
       </c>
       <c r="S4">
-        <v>0.01630669077783205</v>
+        <v>0.01093452316591005</v>
       </c>
       <c r="T4">
-        <v>0.01630669077783205</v>
+        <v>0.01093452316591005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H5">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N5">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O5">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P5">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q5">
-        <v>18170.46207676881</v>
+        <v>100645.0928613781</v>
       </c>
       <c r="R5">
-        <v>18170.46207676881</v>
+        <v>905805.8357524034</v>
       </c>
       <c r="S5">
-        <v>0.3398112158786424</v>
+        <v>0.6164938788922093</v>
       </c>
       <c r="T5">
-        <v>0.3398112158786424</v>
+        <v>0.6164938788922093</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H6">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N6">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P6">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q6">
-        <v>12128.18355534681</v>
+        <v>12321.45880065364</v>
       </c>
       <c r="R6">
-        <v>12128.18355534681</v>
+        <v>110893.1292058827</v>
       </c>
       <c r="S6">
-        <v>0.2268127680479235</v>
+        <v>0.07547416087228292</v>
       </c>
       <c r="T6">
-        <v>0.2268127680479235</v>
+        <v>0.07547416087228294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H7">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.9004507531747</v>
+        <v>81.69901900000001</v>
       </c>
       <c r="N7">
-        <v>45.9004507531747</v>
+        <v>245.097057</v>
       </c>
       <c r="O7">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="P7">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
       <c r="Q7">
-        <v>17440.06297854487</v>
+        <v>31458.40908975994</v>
       </c>
       <c r="R7">
-        <v>17440.06297854487</v>
+        <v>283125.6818078395</v>
       </c>
       <c r="S7">
-        <v>0.3261518050945069</v>
+        <v>0.1926960976650489</v>
       </c>
       <c r="T7">
-        <v>0.3261518050945069</v>
+        <v>0.1926960976650489</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H8">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N8">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O8">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P8">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q8">
-        <v>1273.836925940251</v>
+        <v>7410.253956167236</v>
       </c>
       <c r="R8">
-        <v>1273.836925940251</v>
+        <v>66692.28560550512</v>
       </c>
       <c r="S8">
-        <v>0.02382240323917198</v>
+        <v>0.04539094828305296</v>
       </c>
       <c r="T8">
-        <v>0.02382240323917198</v>
+        <v>0.04539094828305296</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H9">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N9">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O9">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P9">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q9">
-        <v>850.2440935244165</v>
+        <v>907.1991115260118</v>
       </c>
       <c r="R9">
-        <v>850.2440935244165</v>
+        <v>8164.792003734107</v>
       </c>
       <c r="S9">
-        <v>0.01590066768767304</v>
+        <v>0.005556979315052704</v>
       </c>
       <c r="T9">
-        <v>0.01590066768767304</v>
+        <v>0.005556979315052705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H10">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.9004507531747</v>
+        <v>81.69901900000001</v>
       </c>
       <c r="N10">
-        <v>45.9004507531747</v>
+        <v>245.097057</v>
       </c>
       <c r="O10">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="P10">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
       <c r="Q10">
-        <v>1222.632430531152</v>
+        <v>2316.206322480101</v>
       </c>
       <c r="R10">
-        <v>1222.632430531152</v>
+        <v>20845.85690232091</v>
       </c>
       <c r="S10">
-        <v>0.02286481274037755</v>
+        <v>0.01418774606355769</v>
       </c>
       <c r="T10">
-        <v>0.02286481274037755</v>
+        <v>0.0141877460635577</v>
       </c>
     </row>
   </sheetData>
